--- a/biology/Botanique/Ludwig_Abel_(horticulteur)/Ludwig_Abel_(horticulteur).xlsx
+++ b/biology/Botanique/Ludwig_Abel_(horticulteur)/Ludwig_Abel_(horticulteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Abel naît le 8 mars 1811 près de Dessau-Roßlau et meurt le 5 février 1871 à Vienne. Il est horticulteur.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ludwig Abel naît près de Dessau-Roßlau le 8 mars 1811[1].
-À partir de 1834, il est jardinier chez Carl von Hügel à Hietzing[1].
-Il se marie en 1840 avec Josephine Abel, née Heller et a deux fils : Lothar Abel et Friedrich Abel[1].
-Après s'être formé en autodidacte comme architecte paysagiste, il siège au conseil municipal de Vienne (de 1862 à 1870) et propose, entre autres, la transformation architecturale des rives de la Vienne ainsi qu'une amélioration de l'aménagement paysager du Ring[1].
-En 1857, il est nommé au CA de la Société d'horticulture de Vienne et obtient la création de la première école d'horticulture à Vienne avec Josef Mitscha von Märheim (de), Heinrich Wilhelm Reichardt (de) et Eduard Fenzl, qui fut inaugurée en 1868[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Abel naît près de Dessau-Roßlau le 8 mars 1811.
+À partir de 1834, il est jardinier chez Carl von Hügel à Hietzing.
+Il se marie en 1840 avec Josephine Abel, née Heller et a deux fils : Lothar Abel et Friedrich Abel.
+Après s'être formé en autodidacte comme architecte paysagiste, il siège au conseil municipal de Vienne (de 1862 à 1870) et propose, entre autres, la transformation architecturale des rives de la Vienne ainsi qu'une amélioration de l'aménagement paysager du Ring.
+En 1857, il est nommé au CA de la Société d'horticulture de Vienne et obtient la création de la première école d'horticulture à Vienne avec Josef Mitscha von Märheim (de), Heinrich Wilhelm Reichardt (de) et Eduard Fenzl, qui fut inaugurée en 1868.
 </t>
         </is>
       </c>
